--- a/biology/Botanique/Codonanthus_(Apocynaceae)/Codonanthus_(Apocynaceae).xlsx
+++ b/biology/Botanique/Codonanthus_(Apocynaceae)/Codonanthus_(Apocynaceae).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hoya est un genre de plantes à fleurs de la famille des Asclepiadaceae, ou des Apocynaceae selon la classification phylogénétique. Ce genre regroupe 200 à 300 espèces tropicales, dont, parmi les plus répandues :
 Hoya bella
@@ -514,9 +526,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (12 mars 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (12 mars 2013) :
 Hoya australis
 Hoya carnosa
 Hoya chinghungensis
@@ -551,10 +565,10 @@
 Hoya silvatica
 Hoya thomsonii
 Hoya villosa
-Selon ITIS      (12 mars 2013)[2] :
+Selon ITIS      (12 mars 2013) :
 Hoya australis R. Br. ex J. Traill
 Hoya carnosa (L. f.) R. Br.
-Selon NCBI  (12 mars 2013)[3] :
+Selon NCBI  (12 mars 2013) :
 Hoya acuta
 Hoya affinis
 Hoya albiflora
@@ -639,7 +653,7 @@
 Hoya wallichii
 Hoya waymaniae
 Hoya wightii
-Selon Tropicos                                           (12 mars 2013)[4] :
+Selon Tropicos                                           (12 mars 2013) :
 Hoya acuminata (Wight) Benth. ex Hook. f.
 Hoya acuta Haw.
 Hoya aeschynanthoides Schltr.
@@ -1061,7 +1075,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sperlingia Vahl, Skr. Naturhist.-Selsk. 6: 112. 1810
 Schollia Jacq., Eclog. Pl. Rar. 1: 5. Oct 1811.
